--- a/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F6E73-6F7F-417B-8ED4-09679E5401A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,12 +228,15 @@
   </si>
   <si>
     <t>3/22,24,25/2023</t>
+  </si>
+  <si>
+    <t>5/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -920,25 +922,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,34 +1247,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E64" sqref="E64"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1295,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1315,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1335,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1341,7 +1343,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1354,7 +1356,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1371,7 +1373,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1415,7 +1417,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.5</v>
+        <v>40.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1425,12 +1427,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69.5</v>
+        <v>70.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1454,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -1472,7 +1474,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43282</v>
       </c>
@@ -1492,7 +1494,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -1512,7 +1514,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -1532,7 +1534,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43374</v>
       </c>
@@ -1552,7 +1554,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43405</v>
       </c>
@@ -1572,7 +1574,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43435</v>
       </c>
@@ -1592,7 +1594,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1612,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43466</v>
       </c>
@@ -1630,7 +1632,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43497</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43525</v>
       </c>
@@ -1670,7 +1672,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43556</v>
       </c>
@@ -1690,7 +1692,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43586</v>
       </c>
@@ -1710,7 +1712,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
@@ -1730,7 +1732,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43647</v>
       </c>
@@ -1750,7 +1752,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43709</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43739</v>
       </c>
@@ -1816,7 +1818,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43770</v>
       </c>
@@ -1836,7 +1838,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43800</v>
       </c>
@@ -1860,7 +1862,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1880,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43831</v>
       </c>
@@ -1898,7 +1900,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43862</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43891</v>
       </c>
@@ -1938,7 +1940,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43922</v>
       </c>
@@ -1958,7 +1960,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43952</v>
       </c>
@@ -1978,7 +1980,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -1998,7 +2000,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -2018,7 +2020,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44044</v>
       </c>
@@ -2038,7 +2040,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44075</v>
       </c>
@@ -2058,7 +2060,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -2078,7 +2080,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44136</v>
       </c>
@@ -2098,7 +2100,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44166</v>
       </c>
@@ -2122,7 +2124,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>47</v>
       </c>
@@ -2140,7 +2142,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44197</v>
       </c>
@@ -2160,7 +2162,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44228</v>
       </c>
@@ -2180,7 +2182,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44256</v>
       </c>
@@ -2200,7 +2202,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44287</v>
       </c>
@@ -2220,7 +2222,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44317</v>
       </c>
@@ -2240,7 +2242,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44348</v>
       </c>
@@ -2260,7 +2262,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44378</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44409</v>
       </c>
@@ -2300,7 +2302,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44440</v>
       </c>
@@ -2320,7 +2322,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44470</v>
       </c>
@@ -2340,7 +2342,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44501</v>
       </c>
@@ -2360,7 +2362,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44531</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>48</v>
       </c>
@@ -2402,7 +2404,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44562</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44593</v>
       </c>
@@ -2442,7 +2444,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44621</v>
       </c>
@@ -2462,7 +2464,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44652</v>
       </c>
@@ -2482,7 +2484,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44682</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44713</v>
       </c>
@@ -2528,7 +2530,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44743</v>
       </c>
@@ -2548,7 +2550,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44774</v>
       </c>
@@ -2568,7 +2570,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44805</v>
       </c>
@@ -2588,7 +2590,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44835</v>
       </c>
@@ -2608,7 +2610,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44866</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44896</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>58</v>
       </c>
@@ -2678,7 +2680,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44927</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44958</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>62</v>
@@ -2750,7 +2752,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44986</v>
       </c>
@@ -2776,31 +2778,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45017</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45047</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>2</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -2810,9 +2818,11 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45078</v>
       </c>
@@ -2830,7 +2840,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45108</v>
       </c>
@@ -2848,7 +2858,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45139</v>
       </c>
@@ -2866,7 +2876,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45170</v>
       </c>
@@ -2884,7 +2894,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45200</v>
       </c>
@@ -2902,7 +2912,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45231</v>
       </c>
@@ -2920,7 +2930,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45261</v>
       </c>
@@ -2938,7 +2948,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45292</v>
       </c>
@@ -2956,7 +2966,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45323</v>
       </c>
@@ -2974,7 +2984,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45352</v>
       </c>
@@ -2992,7 +3002,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45383</v>
       </c>
@@ -3010,7 +3020,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45413</v>
       </c>
@@ -3028,7 +3038,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45444</v>
       </c>
@@ -3046,7 +3056,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45474</v>
       </c>
@@ -3064,7 +3074,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45505</v>
       </c>
@@ -3082,7 +3092,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45536</v>
       </c>
@@ -3100,7 +3110,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45566</v>
       </c>
@@ -3118,7 +3128,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45597</v>
       </c>
@@ -3136,7 +3146,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45627</v>
       </c>
@@ -3154,7 +3164,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45658</v>
       </c>
@@ -3172,7 +3182,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45689</v>
       </c>
@@ -3190,7 +3200,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45717</v>
       </c>
@@ -3208,7 +3218,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45748</v>
       </c>
@@ -3226,7 +3236,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45778</v>
       </c>
@@ -3244,7 +3254,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45809</v>
       </c>
@@ -3262,7 +3272,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45839</v>
       </c>
@@ -3280,7 +3290,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45870</v>
       </c>
@@ -3298,7 +3308,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45901</v>
       </c>
@@ -3316,7 +3326,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45931</v>
       </c>
@@ -3334,7 +3344,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45962</v>
       </c>
@@ -3352,7 +3362,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45992</v>
       </c>
@@ -3370,7 +3380,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>46023</v>
       </c>
@@ -3388,7 +3398,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>46054</v>
       </c>
@@ -3406,7 +3416,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>46082</v>
       </c>
@@ -3424,7 +3434,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46113</v>
       </c>
@@ -3442,7 +3452,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46143</v>
       </c>
@@ -3460,7 +3470,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46174</v>
       </c>
@@ -3478,7 +3488,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46204</v>
       </c>
@@ -3496,7 +3506,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46235</v>
       </c>
@@ -3514,7 +3524,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46266</v>
       </c>
@@ -3532,7 +3542,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46296</v>
       </c>
@@ -3550,7 +3560,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46327</v>
       </c>
@@ -3568,7 +3578,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46357</v>
       </c>
@@ -3586,7 +3596,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46388</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46419</v>
       </c>
@@ -3622,7 +3632,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46447</v>
       </c>
@@ -3640,7 +3650,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46478</v>
       </c>
@@ -3658,7 +3668,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46508</v>
       </c>
@@ -3676,7 +3686,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46539</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46569</v>
       </c>
@@ -3712,7 +3722,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46600</v>
       </c>
@@ -3730,7 +3740,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46631</v>
       </c>
@@ -3748,7 +3758,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46661</v>
       </c>
@@ -3766,7 +3776,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46692</v>
       </c>
@@ -3784,7 +3794,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3800,7 +3810,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -3831,10 +3841,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3857,28 +3867,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3891,7 +3901,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3920,7 +3930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3940,17 +3950,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3971,7 +3981,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3998,7 +4008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4024,7 +4034,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4050,7 +4060,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4154,7 +4164,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4220,7 +4230,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4303,7 +4313,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4345,7 +4355,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4366,7 +4376,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4408,7 +4418,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4450,7 +4460,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4492,7 +4502,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4534,7 +4544,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4555,7 +4565,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4597,7 +4607,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4639,7 +4649,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4660,7 +4670,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4678,7 +4688,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4687,7 +4697,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4696,7 +4706,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4705,7 +4715,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4714,7 +4724,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4723,7 +4733,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4732,7 +4742,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4741,7 +4751,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4750,7 +4760,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4759,7 +4769,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4768,7 +4778,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4777,7 +4787,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4786,7 +4796,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4795,7 +4805,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4804,7 +4814,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4813,7 +4823,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4822,7 +4832,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4831,7 +4841,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4840,7 +4850,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4849,7 +4859,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4858,7 +4868,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4867,7 +4877,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4876,7 +4886,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4885,7 +4895,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4894,7 +4904,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4903,7 +4913,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4912,7 +4922,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4921,7 +4931,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>5/29,30/2023</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>06/4,6-8,10-11,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E64" sqref="E64"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1423,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.75</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1427,7 +1433,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.75</v>
+        <v>72</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2805,15 +2811,17 @@
       <c r="B76" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
         <v>2</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -2826,9 +2834,13 @@
       <c r="A77" s="40">
         <v>45078</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>7</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -2838,7 +2850,9 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">

--- a/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>06/4,6-8,10-11,14/2023</t>
+  </si>
+  <si>
+    <t>6/9,13,15/2023</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1257,12 +1260,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E64" sqref="E64"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1436,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2855,10 +2858,10 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B78" s="20"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
@@ -2867,14 +2870,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="39">
+        <v>3</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2892,7 +2899,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2910,7 +2917,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2928,7 +2935,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2946,7 +2953,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2964,7 +2971,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2982,7 +2989,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3000,7 +3007,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3018,7 +3025,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3036,7 +3043,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3054,7 +3061,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3072,7 +3079,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3090,7 +3097,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3108,7 +3115,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3126,7 +3133,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3144,7 +3151,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3162,7 +3169,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3180,7 +3187,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3198,7 +3205,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3216,7 +3223,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3234,7 +3241,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3252,7 +3259,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3270,7 +3277,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3288,7 +3295,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3306,7 +3313,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3324,7 +3331,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3342,7 +3349,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3360,7 +3367,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3378,7 +3385,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3396,7 +3403,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3414,7 +3421,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3432,7 +3439,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3450,7 +3457,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3468,7 +3475,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3486,7 +3493,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3504,7 +3511,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3522,7 +3529,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3540,7 +3547,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3558,7 +3565,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3576,7 +3583,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3594,7 +3601,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3612,7 +3619,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3630,7 +3637,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3648,7 +3655,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3666,7 +3673,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3684,7 +3691,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3702,7 +3709,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3720,7 +3727,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3738,7 +3745,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3756,7 +3763,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3774,7 +3781,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3792,7 +3799,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3809,7 +3816,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>46692</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -3825,20 +3834,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
+++ b/REGULAR/RE-ENCODE/HERNANDEZ, DONATO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>6/9,13,15/2023</t>
+  </si>
+  <si>
+    <t>8/1-4,7-11,14/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1271,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E64" sqref="E64"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1432,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35</v>
+        <v>27.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1436,7 +1442,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69</v>
+        <v>71.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2840,15 +2846,17 @@
       <c r="B77" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39">
         <v>7</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -2884,13 +2892,15 @@
         <v>45108</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -2901,9 +2911,13 @@
       <c r="A80" s="40">
         <v>45139</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>10</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -2913,7 +2927,9 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
